--- a/doc/Feuille de temps.xlsx
+++ b/doc/Feuille de temps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -34,19 +34,10 @@
     <t>Temps (h)</t>
   </si>
   <si>
-    <t>Travail sur Cell</t>
+    <t>Olivier : ConsoleMenu, Dominique : Mastermind</t>
   </si>
   <si>
-    <t>Travail sur Cell et Iterator</t>
-  </si>
-  <si>
-    <t>Travail sur Iterator</t>
-  </si>
-  <si>
-    <t>Travail sur List et TestList</t>
-  </si>
-  <si>
-    <t>Réalisation des tests et correction des problèmes</t>
+    <t>Assemblage</t>
   </si>
 </sst>
 </file>
@@ -786,7 +777,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -818,7 +809,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>41746</v>
+        <v>41764</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -835,13 +826,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>41750</v>
+        <v>41766</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
@@ -852,13 +843,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>41752</v>
+        <v>41767</v>
       </c>
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>4</v>
@@ -869,13 +860,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>41753</v>
+        <v>41771</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
@@ -886,13 +877,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>41758</v>
+        <v>41773</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -903,17 +894,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>41759</v>
+        <v>41774</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
